--- a/Projet/Dictionnaire_donnees.xlsx
+++ b/Projet/Dictionnaire_donnees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IFPA\Desktop\DWWM\Projet Dev\Dossiers\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC50210D-AA0C-4071-BAB2-25667DCBAB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE22C964-2749-4F4A-8B8B-5C9A7A0082E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{C4968BD2-38F3-4FD7-8726-1DAC66A7D5FE}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
-  <si>
-    <t>nom de la donnee</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Designation</t>
   </si>
@@ -78,9 +75,6 @@
     <t>mot_de_passe</t>
   </si>
   <si>
-    <t>not null check ("0","1_2_s", "3_5_s","6_p_s"), default ("0")</t>
-  </si>
-  <si>
     <t>frequence d activite par semaine pour calcul d un multiplicateur</t>
   </si>
   <si>
@@ -93,42 +87,18 @@
     <t>sexe de la personne ( masculin :true feminin : false</t>
   </si>
   <si>
-    <t>Not null , default false</t>
-  </si>
-  <si>
     <t>Tx_graisse</t>
   </si>
   <si>
-    <t>Multiplicateur_act</t>
-  </si>
-  <si>
-    <t>Objectif_prise_masse</t>
-  </si>
-  <si>
-    <t>Objectif_seche</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>Poid_final</t>
   </si>
   <si>
-    <t>Id_user</t>
-  </si>
-  <si>
-    <t>id_recette</t>
-  </si>
-  <si>
     <t>id_user</t>
   </si>
   <si>
-    <t>calorie_maintenance</t>
-  </si>
-  <si>
-    <t>colorie_j</t>
-  </si>
-  <si>
     <t>glucide_j</t>
   </si>
   <si>
@@ -168,42 +138,21 @@
     <t>poid de depart de l utilisateur</t>
   </si>
   <si>
-    <t>Poid</t>
-  </si>
-  <si>
     <t>taux de graisse  de l utilisateur</t>
   </si>
   <si>
-    <t>multiplicateur d activite pour calcul</t>
-  </si>
-  <si>
-    <t>nbre de calorie pour prise de masse</t>
-  </si>
-  <si>
-    <t>nbre de calorie pour deficit seche</t>
-  </si>
-  <si>
     <t>date d enregistrment des donnees</t>
   </si>
   <si>
     <t>poid a atteindre selon les calculs</t>
   </si>
   <si>
-    <t xml:space="preserve">recuperation de l user id </t>
-  </si>
-  <si>
-    <t>identification de la recette mis en favoris</t>
-  </si>
-  <si>
     <t>identification de l utilisateur recupere</t>
   </si>
   <si>
     <t xml:space="preserve">calorie methbolisme de base calculé </t>
   </si>
   <si>
-    <t>calorie par jour a comsommer</t>
-  </si>
-  <si>
     <t>nbre de lipide par jour a consommer en gr</t>
   </si>
   <si>
@@ -216,27 +165,6 @@
     <t>nbre de proteine par jour a consommer en gr</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>date_exp</t>
-  </si>
-  <si>
-    <t>token genere pour verification session active</t>
-  </si>
-  <si>
-    <t>date calculer pour expiration de la session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID utilisateurs </t>
-  </si>
-  <si>
-    <t>url_progamme</t>
-  </si>
-  <si>
-    <t>identification de la recette lie au json</t>
-  </si>
-  <si>
     <t>lien pour fichier pdf du programme</t>
   </si>
   <si>
@@ -244,13 +172,88 @@
   </si>
   <si>
     <t>generated as identity primary key auto_incremental</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>taille</t>
+  </si>
+  <si>
+    <t>Taille de la personne</t>
+  </si>
+  <si>
+    <t>poids</t>
+  </si>
+  <si>
+    <t>poid de la personne</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>recuperation de l user id lie a la table users</t>
+  </si>
+  <si>
+    <t>is_favorite</t>
+  </si>
+  <si>
+    <t>choix de cette recette en favoris</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>a supprimer ne sert pas a grand-chose</t>
+  </si>
+  <si>
+    <t>identification de la recette lie au json mis en favoris</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>identification des programme ajouté</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>upload_at</t>
+  </si>
+  <si>
+    <t>Poids</t>
+  </si>
+  <si>
+    <t>Depense_calorie</t>
+  </si>
+  <si>
+    <t>Objectif_calorie</t>
+  </si>
+  <si>
+    <t>nbre de calorie pour prise de masse ou seche / j</t>
+  </si>
+  <si>
+    <t>not null , default (0)</t>
+  </si>
+  <si>
+    <t>not null , default false</t>
+  </si>
+  <si>
+    <t>nom de la donnée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,16 +261,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -320,19 +336,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,456 +679,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B4F08C-F438-4042-AE9C-F38D81716D10}">
-  <dimension ref="B1:E38"/>
+  <dimension ref="B1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="3"/>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
